--- a/ユースケース図.xlsx
+++ b/ユースケース図.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\森永製品ネット販売システム\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="20475" windowHeight="9855"/>
   </bookViews>
@@ -95,6 +100,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -104,15 +112,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>336839</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>88971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134865</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -121,8 +129,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="223837"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="260421"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -179,8 +187,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1182893" y="1002629"/>
+            <a:ext cx="3771900" cy="376705"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -227,15 +235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>336839</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144390</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -244,8 +252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="7081837"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="6785046"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -302,8 +310,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1209676" y="1003710"/>
+            <a:ext cx="3771900" cy="360485"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -366,15 +374,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>336839</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11040</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -383,8 +391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="6224587"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="5965896"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -441,8 +449,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1209676" y="1017100"/>
+            <a:ext cx="3771900" cy="373877"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -505,15 +513,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>336839</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>69921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>115815</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -522,8 +530,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="8796337"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="7613721"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -580,8 +588,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1209676" y="1003710"/>
+            <a:ext cx="3771900" cy="387268"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -632,7 +640,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>11)</a:t>
+              <a:t>10)</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -644,15 +652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>336839</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58665</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -661,8 +669,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="5367337"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="5156271"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -719,8 +727,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1196284" y="1042803"/>
+            <a:ext cx="3771900" cy="349923"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -783,15 +791,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>336839</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>31821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77715</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -800,8 +808,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="1081087"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="1060521"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -858,8 +866,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1196284" y="1029411"/>
+            <a:ext cx="3771900" cy="363314"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -906,15 +914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>336839</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39615</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -923,8 +931,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="1938337"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="1879671"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -981,8 +989,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1196284" y="1029411"/>
+            <a:ext cx="3771900" cy="363314"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1029,154 +1037,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>336839</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="41" name="グループ化 40"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2247900" y="7939087"/>
-          <a:ext cx="3219450" cy="804863"/>
-          <a:chOff x="1000125" y="685800"/>
-          <a:chExt cx="4114800" cy="1028700"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="円/楕円 41"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1000125" y="685800"/>
-            <a:ext cx="4114800" cy="1028700"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>購入ポイントを加算する</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>ID:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>10)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158678</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1185,8 +1054,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="2790825"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="2684534"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -1243,8 +1112,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1209676" y="1036106"/>
+            <a:ext cx="3771900" cy="383402"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1307,15 +1176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>336839</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115815</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1324,8 +1193,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="3652837"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="3498921"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -1382,8 +1251,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1209676" y="1002629"/>
+            <a:ext cx="3771900" cy="390097"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1446,15 +1315,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>336839</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520412</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87240</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1463,8 +1332,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2247900" y="4510087"/>
-          <a:ext cx="3219450" cy="804863"/>
+          <a:off x="2394239" y="4327596"/>
+          <a:ext cx="2926773" cy="731694"/>
           <a:chOff x="1000125" y="685800"/>
           <a:chExt cx="4114800" cy="1028700"/>
         </a:xfrm>
@@ -1521,8 +1390,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1209675" y="1057275"/>
-            <a:ext cx="3771900" cy="295276"/>
+            <a:off x="1209676" y="1030493"/>
+            <a:ext cx="3771900" cy="360485"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1584,52 +1453,738 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="876300" y="609600"/>
+          <a:ext cx="1390650" cy="2133601"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線コネクタ 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="876300" y="1428750"/>
+          <a:ext cx="1381125" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="895350" y="2238376"/>
+          <a:ext cx="1333500" cy="523874"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="2762250"/>
+          <a:ext cx="1352550" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線コネクタ 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="2771775"/>
+          <a:ext cx="1343025" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線コネクタ 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914400" y="619125"/>
+          <a:ext cx="1352550" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線コネクタ 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="904876" y="1438275"/>
+          <a:ext cx="1352549" cy="4238625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線コネクタ 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="904875" y="2238375"/>
+          <a:ext cx="1323975" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="904876" y="3057525"/>
+          <a:ext cx="1323974" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線コネクタ 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="895350" y="4695825"/>
+          <a:ext cx="1295400" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209552</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線コネクタ 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="895352" y="5524500"/>
+          <a:ext cx="1295398" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線コネクタ 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="895351" y="5715001"/>
+          <a:ext cx="1276349" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="895351" y="5705476"/>
+          <a:ext cx="1276349" cy="1447799"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線コネクタ 96"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="895350" y="5705475"/>
+          <a:ext cx="1333501" cy="2286001"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>97848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="58" name="グループ化 57"/>
+        <xdr:cNvPr id="80" name="グループ化 79"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="209550" y="2314576"/>
-          <a:ext cx="790575" cy="1066799"/>
-          <a:chOff x="209550" y="2314576"/>
-          <a:chExt cx="790575" cy="1066799"/>
+          <a:off x="114300" y="2155248"/>
+          <a:ext cx="923926" cy="1292802"/>
+          <a:chOff x="8172450" y="2555298"/>
+          <a:chExt cx="923926" cy="1292802"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="56" name="グループ化 55"/>
+          <xdr:cNvPr id="76" name="グループ化 75"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="390525" y="2314576"/>
-            <a:ext cx="425721" cy="762000"/>
-            <a:chOff x="7705725" y="1790700"/>
-            <a:chExt cx="923925" cy="1653737"/>
+            <a:off x="8353425" y="2555298"/>
+            <a:ext cx="571500" cy="997527"/>
+            <a:chOff x="7877175" y="1724026"/>
+            <a:chExt cx="1047750" cy="1828799"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="円/楕円 52"/>
+            <xdr:cNvPr id="20" name="円/楕円 19"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7743825" y="1790700"/>
-              <a:ext cx="838200" cy="838200"/>
+              <a:off x="8029576" y="1724026"/>
+              <a:ext cx="695324" cy="695324"/>
             </a:xfrm>
             <a:prstGeom prst="ellipse">
               <a:avLst/>
@@ -1666,61 +2221,154 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="54" name="二等辺三角形 53"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="41" name="直線コネクタ 40"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="20" idx="4"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7705725" y="2647950"/>
-              <a:ext cx="923925" cy="796487"/>
+              <a:off x="8377238" y="2419350"/>
+              <a:ext cx="0" cy="676275"/>
             </a:xfrm>
-            <a:prstGeom prst="triangle">
+            <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
             </a:lnRef>
-            <a:fillRef idx="1">
+            <a:fillRef idx="0">
               <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
               <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="tx1"/>
             </a:fontRef>
           </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="43" name="直線コネクタ 42"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7877175" y="2628900"/>
+              <a:ext cx="1047750" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="64" name="直線コネクタ 63"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="7915275" y="3095625"/>
+              <a:ext cx="457200" cy="457200"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="68" name="直線コネクタ 67"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8382000" y="3086100"/>
+              <a:ext cx="457200" cy="457200"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="テキスト ボックス 56"/>
+          <xdr:cNvPr id="78" name="テキスト ボックス 77"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="209550" y="3095625"/>
-            <a:ext cx="790575" cy="285750"/>
+            <a:off x="8172450" y="3590925"/>
+            <a:ext cx="923926" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1762,51 +2410,51 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64077</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="59" name="グループ化 58"/>
+        <xdr:cNvPr id="101" name="グループ化 100"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="257175" y="5248276"/>
-          <a:ext cx="790575" cy="1066799"/>
-          <a:chOff x="209550" y="2314576"/>
-          <a:chExt cx="790575" cy="1066799"/>
+          <a:off x="123825" y="5114925"/>
+          <a:ext cx="923926" cy="1292802"/>
+          <a:chOff x="8172450" y="2555298"/>
+          <a:chExt cx="923926" cy="1292802"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="60" name="グループ化 59"/>
+          <xdr:cNvPr id="102" name="グループ化 101"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="390525" y="2314576"/>
-            <a:ext cx="425721" cy="762000"/>
-            <a:chOff x="7705725" y="1790700"/>
-            <a:chExt cx="923925" cy="1653737"/>
+            <a:off x="8353425" y="2555298"/>
+            <a:ext cx="571500" cy="997527"/>
+            <a:chOff x="7877175" y="1724026"/>
+            <a:chExt cx="1047750" cy="1828799"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="62" name="円/楕円 61"/>
+            <xdr:cNvPr id="104" name="円/楕円 103"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7743825" y="1790700"/>
-              <a:ext cx="838200" cy="838200"/>
+              <a:off x="8029576" y="1724026"/>
+              <a:ext cx="695324" cy="695324"/>
             </a:xfrm>
             <a:prstGeom prst="ellipse">
               <a:avLst/>
@@ -1843,61 +2491,154 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="二等辺三角形 62"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="105" name="直線コネクタ 104"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="104" idx="4"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7705725" y="2647950"/>
-              <a:ext cx="923925" cy="796487"/>
+              <a:off x="8377238" y="2419350"/>
+              <a:ext cx="0" cy="676275"/>
             </a:xfrm>
-            <a:prstGeom prst="triangle">
+            <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
             </a:lnRef>
-            <a:fillRef idx="1">
+            <a:fillRef idx="0">
               <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
               <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="tx1"/>
             </a:fontRef>
           </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="106" name="直線コネクタ 105"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7877175" y="2628900"/>
+              <a:ext cx="1047750" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="107" name="直線コネクタ 106"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="7915275" y="3095625"/>
+              <a:ext cx="457200" cy="457200"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="108" name="直線コネクタ 107"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8382000" y="3086100"/>
+              <a:ext cx="457200" cy="457200"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+          <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="209550" y="3095625"/>
-            <a:ext cx="790575" cy="285750"/>
+            <a:off x="8172450" y="3590925"/>
+            <a:ext cx="923926" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1936,746 +2677,11 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線コネクタ 68"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="876300" y="638175"/>
-          <a:ext cx="1276350" cy="2105025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線コネクタ 70"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="876300" y="1485900"/>
-          <a:ext cx="1276350" cy="1276350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線コネクタ 72"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="857250" y="2343150"/>
-          <a:ext cx="1295400" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線コネクタ 74"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="2762250"/>
-          <a:ext cx="1343025" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線コネクタ 76"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="2762250"/>
-          <a:ext cx="1323975" cy="1285875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線コネクタ 78"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="914400" y="647700"/>
-          <a:ext cx="1238250" cy="5019675"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線コネクタ 80"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="904875" y="1504950"/>
-          <a:ext cx="1247775" cy="4171950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線コネクタ 82"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="904875" y="2343150"/>
-          <a:ext cx="1219200" cy="3343275"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線コネクタ 84"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="904875" y="3209925"/>
-          <a:ext cx="1266825" cy="2486025"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="直線コネクタ 86"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="895350" y="4905375"/>
-          <a:ext cx="1219200" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線コネクタ 88"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="895350" y="5715000"/>
-          <a:ext cx="1247775" cy="38100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線コネクタ 90"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="895350" y="5715000"/>
-          <a:ext cx="1247775" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直線コネクタ 92"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="895350" y="5705475"/>
-          <a:ext cx="1228725" cy="1781175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="直線コネクタ 94"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="895350" y="5695950"/>
-          <a:ext cx="1228725" cy="2638425"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線コネクタ 96"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="895350" y="5686425"/>
-          <a:ext cx="1228725" cy="3514725"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2717,7 +2723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2752,7 +2758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2963,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
